--- a/data_pulling/team_game_logs_1819/team_game_log_BOS.xlsx
+++ b/data_pulling/team_game_logs_1819/team_game_log_BOS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="119">
   <si>
     <t>game.awayTeamAbbreviation</t>
   </si>
@@ -265,6 +265,9 @@
     <t>CLE</t>
   </si>
   <si>
+    <t>NOP</t>
+  </si>
+  <si>
     <t>OKL</t>
   </si>
   <si>
@@ -289,9 +292,6 @@
     <t>DAL</t>
   </si>
   <si>
-    <t>NOP</t>
-  </si>
-  <si>
     <t>MIN</t>
   </si>
   <si>
@@ -365,6 +365,12 @@
   </si>
   <si>
     <t>2018-12-07T01:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2018-12-09T01:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2018-12-11T00:30:00.000Z</t>
   </si>
 </sst>
 </file>
@@ -722,7 +728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BV25"/>
+  <dimension ref="A1:BV27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1853,7 +1859,7 @@
         <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D6">
         <v>47634</v>
@@ -2749,7 +2755,7 @@
         <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D10">
         <v>47696</v>
@@ -2973,7 +2979,7 @@
         <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D11">
         <v>47714</v>
@@ -3197,7 +3203,7 @@
         <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D12">
         <v>47733</v>
@@ -3645,7 +3651,7 @@
         <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D14">
         <v>47757</v>
@@ -4541,7 +4547,7 @@
         <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D18">
         <v>47808</v>
@@ -4989,7 +4995,7 @@
         <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D20">
         <v>47837</v>
@@ -5213,7 +5219,7 @@
         <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D21">
         <v>47852</v>
@@ -5437,7 +5443,7 @@
         <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D22">
         <v>47867</v>
@@ -6322,6 +6328,454 @@
         <v>74</v>
       </c>
       <c r="BV25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:74">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26">
+        <v>47952</v>
+      </c>
+      <c r="E26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <v>77</v>
+      </c>
+      <c r="K26">
+        <v>77</v>
+      </c>
+      <c r="L26">
+        <v>10</v>
+      </c>
+      <c r="M26">
+        <v>10</v>
+      </c>
+      <c r="N26">
+        <v>7</v>
+      </c>
+      <c r="O26">
+        <v>7</v>
+      </c>
+      <c r="P26">
+        <v>50</v>
+      </c>
+      <c r="Q26">
+        <v>50</v>
+      </c>
+      <c r="R26">
+        <v>28</v>
+      </c>
+      <c r="S26">
+        <v>28</v>
+      </c>
+      <c r="T26">
+        <v>56</v>
+      </c>
+      <c r="U26">
+        <v>43</v>
+      </c>
+      <c r="V26">
+        <v>43</v>
+      </c>
+      <c r="W26">
+        <v>22</v>
+      </c>
+      <c r="X26">
+        <v>22</v>
+      </c>
+      <c r="Y26">
+        <v>51.2</v>
+      </c>
+      <c r="Z26">
+        <v>93</v>
+      </c>
+      <c r="AA26">
+        <v>93</v>
+      </c>
+      <c r="AB26">
+        <v>50</v>
+      </c>
+      <c r="AC26">
+        <v>50</v>
+      </c>
+      <c r="AD26">
+        <v>53.8</v>
+      </c>
+      <c r="AE26">
+        <v>15</v>
+      </c>
+      <c r="AF26">
+        <v>15</v>
+      </c>
+      <c r="AG26">
+        <v>11</v>
+      </c>
+      <c r="AH26">
+        <v>11</v>
+      </c>
+      <c r="AI26">
+        <v>73.3</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>14</v>
+      </c>
+      <c r="AT26">
+        <v>17</v>
+      </c>
+      <c r="AU26">
+        <v>17</v>
+      </c>
+      <c r="AV26">
+        <v>14</v>
+      </c>
+      <c r="AW26">
+        <v>14</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>14</v>
+      </c>
+      <c r="BB26">
+        <v>17</v>
+      </c>
+      <c r="BC26">
+        <v>17</v>
+      </c>
+      <c r="BD26">
+        <v>14</v>
+      </c>
+      <c r="BE26">
+        <v>56</v>
+      </c>
+      <c r="BF26">
+        <v>56</v>
+      </c>
+      <c r="BG26">
+        <v>34</v>
+      </c>
+      <c r="BH26">
+        <v>34</v>
+      </c>
+      <c r="BI26">
+        <v>133</v>
+      </c>
+      <c r="BJ26">
+        <v>133</v>
+      </c>
+      <c r="BK26">
+        <v>41</v>
+      </c>
+      <c r="BL26">
+        <v>41</v>
+      </c>
+      <c r="BM26">
+        <v>13</v>
+      </c>
+      <c r="BN26">
+        <v>13</v>
+      </c>
+      <c r="BO26">
+        <v>54</v>
+      </c>
+      <c r="BP26">
+        <v>54</v>
+      </c>
+      <c r="BQ26">
+        <v>0</v>
+      </c>
+      <c r="BR26">
+        <v>0</v>
+      </c>
+      <c r="BS26">
+        <v>1</v>
+      </c>
+      <c r="BT26">
+        <v>1</v>
+      </c>
+      <c r="BU26" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV26">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:74">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27">
+        <v>47962</v>
+      </c>
+      <c r="E27" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>100</v>
+      </c>
+      <c r="K27">
+        <v>100</v>
+      </c>
+      <c r="L27">
+        <v>8</v>
+      </c>
+      <c r="M27">
+        <v>8</v>
+      </c>
+      <c r="N27">
+        <v>13</v>
+      </c>
+      <c r="O27">
+        <v>13</v>
+      </c>
+      <c r="P27">
+        <v>51</v>
+      </c>
+      <c r="Q27">
+        <v>51</v>
+      </c>
+      <c r="R27">
+        <v>32</v>
+      </c>
+      <c r="S27">
+        <v>32</v>
+      </c>
+      <c r="T27">
+        <v>62.8</v>
+      </c>
+      <c r="U27">
+        <v>39</v>
+      </c>
+      <c r="V27">
+        <v>39</v>
+      </c>
+      <c r="W27">
+        <v>12</v>
+      </c>
+      <c r="X27">
+        <v>12</v>
+      </c>
+      <c r="Y27">
+        <v>30.8</v>
+      </c>
+      <c r="Z27">
+        <v>90</v>
+      </c>
+      <c r="AA27">
+        <v>90</v>
+      </c>
+      <c r="AB27">
+        <v>44</v>
+      </c>
+      <c r="AC27">
+        <v>44</v>
+      </c>
+      <c r="AD27">
+        <v>48.9</v>
+      </c>
+      <c r="AE27">
+        <v>19</v>
+      </c>
+      <c r="AF27">
+        <v>19</v>
+      </c>
+      <c r="AG27">
+        <v>13</v>
+      </c>
+      <c r="AH27">
+        <v>13</v>
+      </c>
+      <c r="AI27">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>21</v>
+      </c>
+      <c r="AT27">
+        <v>19</v>
+      </c>
+      <c r="AU27">
+        <v>19</v>
+      </c>
+      <c r="AV27">
+        <v>21</v>
+      </c>
+      <c r="AW27">
+        <v>21</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>21</v>
+      </c>
+      <c r="BB27">
+        <v>19</v>
+      </c>
+      <c r="BC27">
+        <v>19</v>
+      </c>
+      <c r="BD27">
+        <v>21</v>
+      </c>
+      <c r="BE27">
+        <v>13</v>
+      </c>
+      <c r="BF27">
+        <v>13</v>
+      </c>
+      <c r="BG27">
+        <v>23</v>
+      </c>
+      <c r="BH27">
+        <v>23</v>
+      </c>
+      <c r="BI27">
+        <v>113</v>
+      </c>
+      <c r="BJ27">
+        <v>113</v>
+      </c>
+      <c r="BK27">
+        <v>37</v>
+      </c>
+      <c r="BL27">
+        <v>37</v>
+      </c>
+      <c r="BM27">
+        <v>14</v>
+      </c>
+      <c r="BN27">
+        <v>14</v>
+      </c>
+      <c r="BO27">
+        <v>51</v>
+      </c>
+      <c r="BP27">
+        <v>51</v>
+      </c>
+      <c r="BQ27">
+        <v>0</v>
+      </c>
+      <c r="BR27">
+        <v>0</v>
+      </c>
+      <c r="BS27">
+        <v>1</v>
+      </c>
+      <c r="BT27">
+        <v>1</v>
+      </c>
+      <c r="BU27" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV27">
         <v>82</v>
       </c>
     </row>
